--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -67,94 +67,97 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>daughter</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>wife</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>nice</t>
@@ -163,145 +166,145 @@
     <t>pie</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>nicely</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>comfortable</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>quality</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
-    <t>long</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>would</t>
   </si>
   <si>
     <t>product</t>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -808,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4341085271317829</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8560371517027864</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4339622641509434</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -902,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -958,13 +961,13 @@
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -984,37 +987,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.282051282051282</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7272727272727273</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1026,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1034,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1783783783783784</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.7050847457627119</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1076,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1084,13 +1087,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.6956521739130435</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1113,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.6857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1139,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.684931506849315</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,13 +1165,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6590909090909091</v>
+        <v>0.6717495987158909</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>837</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>837</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1191,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6581059390048154</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L14">
-        <v>820</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>820</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>426</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1217,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6470588235294118</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,13 +1243,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6457142857142857</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1266,13 +1269,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6444444444444445</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1292,7 +1295,7 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.5972222222222222</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L18">
         <v>43</v>
@@ -1310,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1318,13 +1321,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.5918367346938775</v>
+        <v>0.59375</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1336,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1344,13 +1347,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5789473684210527</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1396,13 +1399,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1414,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1422,13 +1425,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5352112676056338</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1448,13 +1451,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5338345864661654</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L24">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1466,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1474,13 +1477,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5329341317365269</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L25">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M25">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1500,7 +1503,7 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5192307692307693</v>
+        <v>0.54</v>
       </c>
       <c r="L26">
         <v>54</v>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1526,13 +1529,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1544,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1552,13 +1555,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1578,13 +1581,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.484375</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1604,13 +1607,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4698795180722892</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1630,13 +1633,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4578313253012048</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L31">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1648,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1656,7 +1659,7 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4567901234567901</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L32">
         <v>37</v>
@@ -1674,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1682,13 +1685,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.45</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1708,13 +1711,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4313725490196079</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L34">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1726,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>232</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1734,13 +1737,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4153846153846154</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1752,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1760,13 +1763,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4126984126984127</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1786,13 +1789,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.4046692607003891</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L37">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1804,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1812,13 +1815,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3770491803278688</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1830,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1838,13 +1841,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3684210526315789</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L39">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1856,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1864,13 +1867,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3564356435643564</v>
+        <v>0.3841059602649007</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1882,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1890,13 +1893,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.354066985645933</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L41">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1908,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1916,13 +1919,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.3534246575342466</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L42">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1934,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>472</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1942,13 +1945,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.3381294964028777</v>
+        <v>0.3657534246575342</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1960,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>92</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1968,22 +1971,22 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.3333333333333333</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>72</v>
@@ -1994,13 +1997,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.3121636167922497</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L45">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="M45">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2012,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>639</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2020,25 +2023,25 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2972972972972973</v>
+        <v>0.3149946062567422</v>
       </c>
       <c r="L46">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>78</v>
+        <v>635</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2046,13 +2049,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2882882882882883</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2064,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>79</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2072,13 +2075,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2821192052980133</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="L48">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="M48">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2090,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>542</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2098,13 +2101,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2781456953642384</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="L49">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2124,13 +2127,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2758620689655172</v>
+        <v>0.2915360501567398</v>
       </c>
       <c r="L50">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M50">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2142,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2150,25 +2153,25 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2751677852348993</v>
+        <v>0.2644415917843389</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>108</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2176,25 +2179,25 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.245186136071887</v>
+        <v>0.25</v>
       </c>
       <c r="L52">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>588</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2202,13 +2205,13 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.23</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2220,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2228,13 +2231,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.2164948453608248</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L54">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2246,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>228</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2254,25 +2257,25 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.2146341463414634</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L55">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>322</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2280,25 +2283,25 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.2109704641350211</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L56">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>187</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2306,25 +2309,25 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1985645933014354</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L57">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>335</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2332,25 +2335,25 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1951219512195122</v>
+        <v>0.1989100817438692</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>132</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2358,25 +2361,25 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1907894736842105</v>
+        <v>0.195</v>
       </c>
       <c r="L59">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="M59">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>369</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2384,25 +2387,25 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1896551724137931</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2410,25 +2413,25 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1863636363636364</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="L61">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="M61">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>358</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2436,13 +2439,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.180327868852459</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2454,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2462,25 +2465,25 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1721311475409836</v>
+        <v>0.1820175438596491</v>
       </c>
       <c r="L63">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="M63">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="N63">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>303</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2488,13 +2491,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1717791411042945</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2506,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>135</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2514,13 +2517,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1705426356589147</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2532,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2540,25 +2543,25 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.1692307692307692</v>
+        <v>0.1774580335731415</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="M66">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>108</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2566,25 +2569,25 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.1623616236162362</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L67">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M67">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>227</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2592,25 +2595,25 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.1585365853658537</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="M68">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>138</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2618,25 +2621,25 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.1534090909090909</v>
+        <v>0.1680672268907563</v>
       </c>
       <c r="L69">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M69">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2644,13 +2647,13 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.1502732240437158</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L70">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M70">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2662,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>311</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2670,25 +2673,25 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.1492537313432836</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L71">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2696,25 +2699,25 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1474358974358974</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>133</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2722,13 +2725,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.125</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M73">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2740,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2748,25 +2751,25 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1207729468599034</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L74">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2774,13 +2777,13 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.1194244604316547</v>
+        <v>0.1142322097378277</v>
       </c>
       <c r="L75">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="M75">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="N75">
         <v>0.97</v>
@@ -2792,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>612</v>
+        <v>946</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2800,25 +2803,25 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1123595505617977</v>
+        <v>0.1138328530259366</v>
       </c>
       <c r="L76">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="M76">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="N76">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O76">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>948</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2826,25 +2829,25 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1111111111111111</v>
+        <v>0.09242144177449169</v>
       </c>
       <c r="L77">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M77">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>240</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2852,25 +2855,25 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1068702290076336</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="L78">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M78">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N78">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2878,25 +2881,25 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.07785888077858881</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L79">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M79">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N79">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="O79">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>379</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2904,25 +2907,25 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.07285342584562012</v>
+        <v>0.07948717948717948</v>
       </c>
       <c r="L80">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1069</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2930,25 +2933,25 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.07115384615384615</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="L81">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M81">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="N81">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O81">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>483</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2956,25 +2959,25 @@
         <v>95</v>
       </c>
       <c r="K82">
-        <v>0.06493506493506493</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="L82">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M82">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N82">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="O82">
-        <v>0.07999999999999996</v>
+        <v>0.18</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>504</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2982,25 +2985,51 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>0.03841059602649007</v>
+        <v>0.03017832647462277</v>
       </c>
       <c r="L83">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M83">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N83">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="O83">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>726</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84">
+        <v>0.02887139107611549</v>
+      </c>
+      <c r="L84">
+        <v>22</v>
+      </c>
+      <c r="M84">
+        <v>27</v>
+      </c>
+      <c r="N84">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O84">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
